--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.8278361642453</v>
+        <v>61.91334466666666</v>
       </c>
       <c r="H2">
-        <v>43.8278361642453</v>
+        <v>185.740034</v>
       </c>
       <c r="I2">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="J2">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.8086550648992</v>
+        <v>71.19677366666667</v>
       </c>
       <c r="N2">
-        <v>58.8086550648992</v>
+        <v>213.590321</v>
       </c>
       <c r="O2">
-        <v>0.5515110299545654</v>
+        <v>0.5967372004470156</v>
       </c>
       <c r="P2">
-        <v>0.5515110299545654</v>
+        <v>0.5967372004470156</v>
       </c>
       <c r="Q2">
-        <v>2577.456099224017</v>
+        <v>4408.03038717899</v>
       </c>
       <c r="R2">
-        <v>2577.456099224017</v>
+        <v>39672.27348461092</v>
       </c>
       <c r="S2">
-        <v>0.230873442489388</v>
+        <v>0.2996115702273656</v>
       </c>
       <c r="T2">
-        <v>0.230873442489388</v>
+        <v>0.2996115702273656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.8278361642453</v>
+        <v>61.91334466666666</v>
       </c>
       <c r="H3">
-        <v>43.8278361642453</v>
+        <v>185.740034</v>
       </c>
       <c r="I3">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="J3">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.6326243799786</v>
+        <v>31.695371</v>
       </c>
       <c r="N3">
-        <v>31.6326243799786</v>
+        <v>95.086113</v>
       </c>
       <c r="O3">
-        <v>0.2966526140194054</v>
+        <v>0.2656553939680093</v>
       </c>
       <c r="P3">
-        <v>0.2966526140194054</v>
+        <v>0.2656553939680093</v>
       </c>
       <c r="Q3">
-        <v>1386.389478770814</v>
+        <v>1962.366429060871</v>
       </c>
       <c r="R3">
-        <v>1386.389478770814</v>
+        <v>17661.29786154784</v>
       </c>
       <c r="S3">
-        <v>0.1241846608721101</v>
+        <v>0.1333810422184193</v>
       </c>
       <c r="T3">
-        <v>0.1241846608721101</v>
+        <v>0.1333810422184193</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.8278361642453</v>
+        <v>61.91334466666666</v>
       </c>
       <c r="H4">
-        <v>43.8278361642453</v>
+        <v>185.740034</v>
       </c>
       <c r="I4">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="J4">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.1905952970362</v>
+        <v>16.417953</v>
       </c>
       <c r="N4">
-        <v>16.1905952970362</v>
+        <v>49.25385900000001</v>
       </c>
       <c r="O4">
-        <v>0.1518363560260292</v>
+        <v>0.1376074055849752</v>
       </c>
       <c r="P4">
-        <v>0.1518363560260292</v>
+        <v>0.1376074055849752</v>
       </c>
       <c r="Q4">
-        <v>709.598758080103</v>
+        <v>1016.490382810134</v>
       </c>
       <c r="R4">
-        <v>709.598758080103</v>
+        <v>9148.413445291206</v>
       </c>
       <c r="S4">
-        <v>0.06356170648783142</v>
+        <v>0.06909033127370628</v>
       </c>
       <c r="T4">
-        <v>0.06356170648783142</v>
+        <v>0.06909033127370628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.9888272123428</v>
+        <v>50.09443433333333</v>
       </c>
       <c r="H5">
-        <v>49.9888272123428</v>
+        <v>150.283303</v>
       </c>
       <c r="I5">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674705</v>
       </c>
       <c r="J5">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674706</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>58.8086550648992</v>
+        <v>71.19677366666667</v>
       </c>
       <c r="N5">
-        <v>58.8086550648992</v>
+        <v>213.590321</v>
       </c>
       <c r="O5">
-        <v>0.5515110299545654</v>
+        <v>0.5967372004470156</v>
       </c>
       <c r="P5">
-        <v>0.5515110299545654</v>
+        <v>0.5967372004470156</v>
       </c>
       <c r="Q5">
-        <v>2939.775696629514</v>
+        <v>3566.56210319003</v>
       </c>
       <c r="R5">
-        <v>2939.775696629514</v>
+        <v>32099.05892871026</v>
       </c>
       <c r="S5">
-        <v>0.2633279129106536</v>
+        <v>0.242417401467607</v>
       </c>
       <c r="T5">
-        <v>0.2633279129106536</v>
+        <v>0.242417401467607</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.9888272123428</v>
+        <v>50.09443433333333</v>
       </c>
       <c r="H6">
-        <v>49.9888272123428</v>
+        <v>150.283303</v>
       </c>
       <c r="I6">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674705</v>
       </c>
       <c r="J6">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674706</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.6326243799786</v>
+        <v>31.695371</v>
       </c>
       <c r="N6">
-        <v>31.6326243799786</v>
+        <v>95.086113</v>
       </c>
       <c r="O6">
-        <v>0.2966526140194054</v>
+        <v>0.2656553939680093</v>
       </c>
       <c r="P6">
-        <v>0.2966526140194054</v>
+        <v>0.2656553939680093</v>
       </c>
       <c r="Q6">
-        <v>1581.277794403692</v>
+        <v>1587.761681230138</v>
       </c>
       <c r="R6">
-        <v>1581.277794403692</v>
+        <v>14289.85513107124</v>
       </c>
       <c r="S6">
-        <v>0.1416416163347724</v>
+        <v>0.1079193491596243</v>
       </c>
       <c r="T6">
-        <v>0.1416416163347724</v>
+        <v>0.1079193491596243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>49.9888272123428</v>
+        <v>50.09443433333333</v>
       </c>
       <c r="H7">
-        <v>49.9888272123428</v>
+        <v>150.283303</v>
       </c>
       <c r="I7">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674705</v>
       </c>
       <c r="J7">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674706</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.1905952970362</v>
+        <v>16.417953</v>
       </c>
       <c r="N7">
-        <v>16.1905952970362</v>
+        <v>49.25385900000001</v>
       </c>
       <c r="O7">
-        <v>0.1518363560260292</v>
+        <v>0.1376074055849752</v>
       </c>
       <c r="P7">
-        <v>0.1518363560260292</v>
+        <v>0.1376074055849752</v>
       </c>
       <c r="Q7">
-        <v>809.3488707685125</v>
+        <v>822.448068446253</v>
       </c>
       <c r="R7">
-        <v>809.3488707685125</v>
+        <v>7402.032616016278</v>
       </c>
       <c r="S7">
-        <v>0.07249673816965559</v>
+        <v>0.0559013744402393</v>
       </c>
       <c r="T7">
-        <v>0.07249673816965559</v>
+        <v>0.05590137444023931</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.8793761634898</v>
+        <v>11.30520233333333</v>
       </c>
       <c r="H8">
-        <v>10.8793761634898</v>
+        <v>33.915607</v>
       </c>
       <c r="I8">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303822</v>
       </c>
       <c r="J8">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303823</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>58.8086550648992</v>
+        <v>71.19677366666667</v>
       </c>
       <c r="N8">
-        <v>58.8086550648992</v>
+        <v>213.590321</v>
       </c>
       <c r="O8">
-        <v>0.5515110299545654</v>
+        <v>0.5967372004470156</v>
       </c>
       <c r="P8">
-        <v>0.5515110299545654</v>
+        <v>0.5967372004470156</v>
       </c>
       <c r="Q8">
-        <v>639.801480119958</v>
+        <v>804.8939317822053</v>
       </c>
       <c r="R8">
-        <v>639.801480119958</v>
+        <v>7244.045386039847</v>
       </c>
       <c r="S8">
-        <v>0.05730967455452368</v>
+        <v>0.05470822875204295</v>
       </c>
       <c r="T8">
-        <v>0.05730967455452368</v>
+        <v>0.05470822875204295</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.8793761634898</v>
+        <v>11.30520233333333</v>
       </c>
       <c r="H9">
-        <v>10.8793761634898</v>
+        <v>33.915607</v>
       </c>
       <c r="I9">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303822</v>
       </c>
       <c r="J9">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303823</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.6326243799786</v>
+        <v>31.695371</v>
       </c>
       <c r="N9">
-        <v>31.6326243799786</v>
+        <v>95.086113</v>
       </c>
       <c r="O9">
-        <v>0.2966526140194054</v>
+        <v>0.2656553939680093</v>
       </c>
       <c r="P9">
-        <v>0.2966526140194054</v>
+        <v>0.2656553939680093</v>
       </c>
       <c r="Q9">
-        <v>344.1432196681655</v>
+        <v>358.3225821850656</v>
       </c>
       <c r="R9">
-        <v>344.1432196681655</v>
+        <v>3224.903239665591</v>
       </c>
       <c r="S9">
-        <v>0.03082633681252293</v>
+        <v>0.02435500258996569</v>
       </c>
       <c r="T9">
-        <v>0.03082633681252293</v>
+        <v>0.02435500258996569</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.8793761634898</v>
+        <v>11.30520233333333</v>
       </c>
       <c r="H10">
-        <v>10.8793761634898</v>
+        <v>33.915607</v>
       </c>
       <c r="I10">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303822</v>
       </c>
       <c r="J10">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303823</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.1905952970362</v>
+        <v>16.417953</v>
       </c>
       <c r="N10">
-        <v>16.1905952970362</v>
+        <v>49.25385900000001</v>
       </c>
       <c r="O10">
-        <v>0.1518363560260292</v>
+        <v>0.1376074055849752</v>
       </c>
       <c r="P10">
-        <v>0.1518363560260292</v>
+        <v>0.1376074055849752</v>
       </c>
       <c r="Q10">
-        <v>176.1435765472857</v>
+        <v>185.608280564157</v>
       </c>
       <c r="R10">
-        <v>176.1435765472857</v>
+        <v>1670.474525077413</v>
       </c>
       <c r="S10">
-        <v>0.01577791136854214</v>
+        <v>0.01261569987102959</v>
       </c>
       <c r="T10">
-        <v>0.01577791136854214</v>
+        <v>0.01261569987102959</v>
       </c>
     </row>
   </sheetData>
